--- a/projeto-base-selenium/src/test/java/SISTEMA/transacoes/fundos/movimentacao/MovimentacaoFdsTest.xlsx
+++ b/projeto-base-selenium/src/test/java/SISTEMA/transacoes/fundos/movimentacao/MovimentacaoFdsTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipem.medeiros\Documents\02-cursos\java\base-selenio\projeto-base-selenium\src\test\java\SISTEMA\transacoes\fundos\movimentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipem.medeiros\Documents\02-cursos\SELENIUM\base-selenio\projeto-base-selenium\src\test\java\SISTEMA\transacoes\fundos\movimentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>carteira</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>__FER</t>
+  </si>
+  <si>
+    <t>12/05/2022</t>
+  </si>
+  <si>
+    <t>C-80818</t>
+  </si>
+  <si>
+    <t>F-80818</t>
+  </si>
+  <si>
+    <t>10000</t>
   </si>
 </sst>
 </file>
@@ -563,7 +575,7 @@
   <dimension ref="B1:M2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,29 +637,37 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
